--- a/reports/estadisticos/DPF por Plazo.xlsx
+++ b/reports/estadisticos/DPF por Plazo.xlsx
@@ -89,9 +89,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt formatCode="#,##0.00; (#,##0.00); 0" numFmtId="164"/>
     <numFmt formatCode="#,##0.00; (#,##0.00); 0.00" numFmtId="165"/>
+    <numFmt formatCode="#,##0; (#,##0); 0" numFmtId="166"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -184,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf applyFont="1" fontId="0"/>
     <xf applyFont="1" fontId="1" applyFill="1" fillId="2" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -196,7 +197,6 @@
       <alignment horizontal="left" shrinkToFit="1" wrapText="1"/>
     </xf>
     <xf applyFont="1" fontId="0" applyFill="1" fillId="4"/>
-    <xf applyFont="1" fontId="0" applyNumberFormat="1" numFmtId="165"/>
     <xf applyFont="1" fontId="0" applyBorder="1" borderId="3"/>
     <xf applyFont="1" fontId="0" applyBorder="1" borderId="3" applyAlignment="1">
       <alignment indent="3" relativeIndent="3"/>
@@ -220,6 +220,11 @@
     <xf applyFont="1" fontId="4" applyBorder="1" borderId="3" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="right" indent="1" relativeIndent="2" shrinkToFit="1" vertical="center" wrapText="1"/>
     </xf>
+    <xf applyFont="1" fontId="0" applyNumberFormat="1" numFmtId="166"/>
+    <xf applyFont="1" fontId="4" applyBorder="1" borderId="3" applyNumberFormat="1" numFmtId="166" applyAlignment="1">
+      <alignment horizontal="right" indent="1" relativeIndent="2" shrinkToFit="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="0" applyNumberFormat="1" numFmtId="165"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -306,398 +311,398 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="14" t="n">
+      <c r="B11" s="15" t="n">
         <v>370</v>
       </c>
-      <c r="C11" s="14" t="n">
+      <c r="C11" s="13" t="n">
         <v>447043.48</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="14" t="n">
+      <c r="B12" s="15" t="n">
         <v>721</v>
       </c>
-      <c r="C12" s="14" t="n">
+      <c r="C12" s="13" t="n">
         <v>732122.18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="14" t="n">
+      <c r="B13" s="15" t="n">
         <v>901</v>
       </c>
-      <c r="C13" s="14" t="n">
+      <c r="C13" s="13" t="n">
         <v>160595.62</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="14" t="n">
+      <c r="B14" s="15" t="n">
         <v>4070</v>
       </c>
-      <c r="C14" s="14" t="n">
+      <c r="C14" s="13" t="n">
         <v>849389.14</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="14" t="n">
+      <c r="B15" s="15" t="n">
         <v>360</v>
       </c>
-      <c r="C15" s="14" t="n">
+      <c r="C15" s="13" t="n">
         <v>504947.45</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="14" t="n">
+      <c r="B16" s="15" t="n">
         <v>540</v>
       </c>
-      <c r="C16" s="14" t="n">
+      <c r="C16" s="13" t="n">
         <v>1001100.3</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="14" t="n">
+      <c r="B17" s="15" t="n">
         <v>720</v>
       </c>
-      <c r="C17" s="14" t="n">
+      <c r="C17" s="13" t="n">
         <v>1013224.52</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="14" t="n">
+      <c r="B18" s="15" t="n">
         <v>1081</v>
       </c>
-      <c r="C18" s="14" t="n">
+      <c r="C18" s="13" t="n">
         <v>500406</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="14" t="n">
+      <c r="B19" s="15" t="n">
         <v>3700</v>
       </c>
-      <c r="C19" s="14" t="n">
+      <c r="C19" s="13" t="n">
         <v>307598.38</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="14" t="n">
+      <c r="B20" s="15" t="n">
         <v>370</v>
       </c>
-      <c r="C20" s="14" t="n">
+      <c r="C20" s="13" t="n">
         <v>200387.26</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="14" t="n">
+      <c r="B21" s="15" t="n">
         <v>400</v>
       </c>
-      <c r="C21" s="14" t="n">
+      <c r="C21" s="13" t="n">
         <v>110439.55</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="14" t="n">
+      <c r="B22" s="15" t="n">
         <v>540</v>
       </c>
-      <c r="C22" s="14" t="n">
+      <c r="C22" s="13" t="n">
         <v>500461.49</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="14" t="n">
+      <c r="B23" s="15" t="n">
         <v>720</v>
       </c>
-      <c r="C23" s="14" t="n">
+      <c r="C23" s="13" t="n">
         <v>601914.64</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="14" t="n">
+      <c r="B24" s="15" t="n">
         <v>600</v>
       </c>
-      <c r="C24" s="14" t="n">
+      <c r="C24" s="13" t="n">
         <v>155055.41</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="14" t="n">
+      <c r="B25" s="15" t="n">
         <v>2160</v>
       </c>
-      <c r="C25" s="14" t="n">
+      <c r="C25" s="13" t="n">
         <v>419503.64</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="14" t="n">
+      <c r="B26" s="15" t="n">
         <v>1766</v>
       </c>
-      <c r="C26" s="14" t="n">
+      <c r="C26" s="13" t="n">
         <v>1024397.16</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="14" t="n">
+      <c r="B27" s="15" t="n">
         <v>1796</v>
       </c>
-      <c r="C27" s="14" t="n">
+      <c r="C27" s="13" t="n">
         <v>342126.29</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="14" t="n">
+      <c r="B28" s="15" t="n">
         <v>1797</v>
       </c>
-      <c r="C28" s="14" t="n">
+      <c r="C28" s="13" t="n">
         <v>856444.82</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="14" t="n">
+      <c r="B29" s="15" t="n">
         <v>3653</v>
       </c>
-      <c r="C29" s="14" t="n">
+      <c r="C29" s="13" t="n">
         <v>898174.79</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="14" t="n">
+      <c r="B30" s="15" t="n">
         <v>360</v>
       </c>
-      <c r="C30" s="14" t="n">
+      <c r="C30" s="13" t="n">
         <v>2714391.1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="14" t="n">
+      <c r="B31" s="15" t="n">
         <v>390</v>
       </c>
-      <c r="C31" s="14" t="n">
+      <c r="C31" s="13" t="n">
         <v>74566.77</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="14" t="n">
+      <c r="B32" s="15" t="n">
         <v>391</v>
       </c>
-      <c r="C32" s="14" t="n">
+      <c r="C32" s="13" t="n">
         <v>14549.17</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="14" t="n">
+      <c r="B33" s="15" t="n">
         <v>392</v>
       </c>
-      <c r="C33" s="14" t="n">
+      <c r="C33" s="13" t="n">
         <v>59692.8</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="14" t="n">
+      <c r="B34" s="15" t="n">
         <v>1080</v>
       </c>
-      <c r="C34" s="14" t="n">
+      <c r="C34" s="13" t="n">
         <v>630494</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="14" t="n">
+      <c r="B35" s="15" t="n">
         <v>1200</v>
       </c>
-      <c r="C35" s="14" t="n">
+      <c r="C35" s="13" t="n">
         <v>2534501.59</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="14" t="n">
+      <c r="B36" s="15" t="n">
         <v>362</v>
       </c>
-      <c r="C36" s="14" t="n">
+      <c r="C36" s="13" t="n">
         <v>148712.49</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="14" t="n">
+      <c r="B37" s="15" t="n">
         <v>363</v>
       </c>
-      <c r="C37" s="14" t="n">
+      <c r="C37" s="13" t="n">
         <v>135346.26</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="14" t="n">
+      <c r="B38" s="15" t="n">
         <v>721</v>
       </c>
-      <c r="C38" s="14" t="n">
+      <c r="C38" s="13" t="n">
         <v>75362.11</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="14" t="n">
+      <c r="B39" s="15" t="n">
         <v>390</v>
       </c>
-      <c r="C39" s="14" t="n">
+      <c r="C39" s="13" t="n">
         <v>30006.09</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="14" t="n">
+      <c r="B40" s="15" t="n">
         <v>721</v>
       </c>
-      <c r="C40" s="14" t="n">
+      <c r="C40" s="13" t="n">
         <v>1005307.52</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="14" t="n">
+      <c r="B41" s="15" t="n">
         <v>1080</v>
       </c>
-      <c r="C41" s="14" t="n">
+      <c r="C41" s="13" t="n">
         <v>900528.22</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="14" t="n">
+      <c r="B42" s="15" t="n">
         <v>92</v>
       </c>
-      <c r="C42" s="14" t="n">
+      <c r="C42" s="13" t="n">
         <v>363639.8</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="14" t="n">
+      <c r="B43" s="15" t="n">
         <v>4319</v>
       </c>
-      <c r="C43" s="14" t="n">
+      <c r="C43" s="13" t="n">
         <v>713326.44</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="14" t="n">
+      <c r="B44" s="15" t="n">
         <v>4320</v>
       </c>
-      <c r="C44" s="14" t="n">
+      <c r="C44" s="13" t="n">
         <v>1782600.43</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="14" t="n">
+      <c r="B45" s="15" t="n">
         <v>3607</v>
       </c>
-      <c r="C45" s="14" t="n">
+      <c r="C45" s="13" t="n">
         <v>3655052.23</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B46" s="14" t="n">
+      <c r="B46" s="15" t="n">
         <v>3614</v>
       </c>
-      <c r="C46" s="14" t="n">
+      <c r="C46" s="13" t="n">
         <v>406149.85</v>
       </c>
     </row>
@@ -739,420 +744,420 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="14" t="n">
+      <c r="B54" s="15" t="n">
         <v>126</v>
       </c>
-      <c r="C54" s="14" t="n">
+      <c r="C54" s="13" t="n">
         <v>447043.48</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B55" s="14" t="n">
+      <c r="B55" s="15" t="n">
         <v>676</v>
       </c>
-      <c r="C55" s="14" t="n">
+      <c r="C55" s="13" t="n">
         <v>732122.18</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="14" t="n">
+      <c r="B56" s="15" t="n">
         <v>886</v>
       </c>
-      <c r="C56" s="14" t="n">
+      <c r="C56" s="13" t="n">
         <v>160595.62</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="14" t="n">
+      <c r="B57" s="15" t="n">
         <v>1845</v>
       </c>
-      <c r="C57" s="14" t="n">
+      <c r="C57" s="13" t="n">
         <v>849389.14</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="14" t="n">
+      <c r="B58" s="15" t="n">
         <v>50</v>
       </c>
-      <c r="C58" s="14" t="n">
+      <c r="C58" s="13" t="n">
         <v>504947.45</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="14" t="n">
+      <c r="B59" s="15" t="n">
         <v>293</v>
       </c>
-      <c r="C59" s="14" t="n">
+      <c r="C59" s="13" t="n">
         <v>1013224.52</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B60" s="14" t="n">
+      <c r="B60" s="15" t="n">
         <v>502</v>
       </c>
-      <c r="C60" s="14" t="n">
+      <c r="C60" s="13" t="n">
         <v>1001100.3</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B61" s="14" t="n">
+      <c r="B61" s="15" t="n">
         <v>1013</v>
       </c>
-      <c r="C61" s="14" t="n">
+      <c r="C61" s="13" t="n">
         <v>307598.38</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="14" t="n">
+      <c r="B62" s="15" t="n">
         <v>1054</v>
       </c>
-      <c r="C62" s="14" t="n">
+      <c r="C62" s="13" t="n">
         <v>500406</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="14" t="n">
+      <c r="B63" s="15" t="n">
         <v>263</v>
       </c>
-      <c r="C63" s="14" t="n">
+      <c r="C63" s="13" t="n">
         <v>601914.64</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B64" s="14" t="n">
+      <c r="B64" s="15" t="n">
         <v>273</v>
       </c>
-      <c r="C64" s="14" t="n">
+      <c r="C64" s="13" t="n">
         <v>110439.55</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B65" s="14" t="n">
+      <c r="B65" s="15" t="n">
         <v>300</v>
       </c>
-      <c r="C65" s="14" t="n">
+      <c r="C65" s="13" t="n">
         <v>200387.26</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B66" s="14" t="n">
+      <c r="B66" s="15" t="n">
         <v>509</v>
       </c>
-      <c r="C66" s="14" t="n">
+      <c r="C66" s="13" t="n">
         <v>500461.49</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B67" s="14" t="n">
+      <c r="B67" s="15" t="n">
         <v>138</v>
       </c>
-      <c r="C67" s="14" t="n">
+      <c r="C67" s="13" t="n">
         <v>155055.41</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B68" s="14" t="n">
+      <c r="B68" s="15" t="n">
         <v>1482</v>
       </c>
-      <c r="C68" s="14" t="n">
+      <c r="C68" s="13" t="n">
         <v>419503.64</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B69" s="14" t="n">
+      <c r="B69" s="15" t="n">
         <v>670</v>
       </c>
-      <c r="C69" s="14" t="n">
+      <c r="C69" s="13" t="n">
         <v>856444.82</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="14" t="n">
+      <c r="B70" s="15" t="n">
         <v>721</v>
       </c>
-      <c r="C70" s="14" t="n">
+      <c r="C70" s="13" t="n">
         <v>683009.03</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B71" s="14" t="n">
+      <c r="B71" s="15" t="n">
         <v>729</v>
       </c>
-      <c r="C71" s="14" t="n">
+      <c r="C71" s="13" t="n">
         <v>341388.13</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="14" t="n">
+      <c r="B72" s="15" t="n">
         <v>747</v>
       </c>
-      <c r="C72" s="14" t="n">
+      <c r="C72" s="13" t="n">
         <v>342126.29</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="14" t="n">
+      <c r="B73" s="15" t="n">
         <v>966</v>
       </c>
-      <c r="C73" s="14" t="n">
+      <c r="C73" s="13" t="n">
         <v>898174.79</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="10" t="s">
+      <c r="A74" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B74" s="14" t="n">
+      <c r="B74" s="15" t="n">
         <v>176</v>
       </c>
-      <c r="C74" s="14" t="n">
+      <c r="C74" s="13" t="n">
         <v>2011214.37</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="14" t="n">
+      <c r="B75" s="15" t="n">
         <v>182</v>
       </c>
-      <c r="C75" s="14" t="n">
+      <c r="C75" s="13" t="n">
         <v>630494</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B76" s="14" t="n">
+      <c r="B76" s="15" t="n">
         <v>211</v>
       </c>
-      <c r="C76" s="14" t="n">
+      <c r="C76" s="13" t="n">
         <v>703176.73</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="10" t="s">
+      <c r="A77" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B77" s="14" t="n">
+      <c r="B77" s="15" t="n">
         <v>321</v>
       </c>
-      <c r="C77" s="14" t="n">
+      <c r="C77" s="13" t="n">
         <v>74566.77</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B78" s="14" t="n">
+      <c r="B78" s="15" t="n">
         <v>326</v>
       </c>
-      <c r="C78" s="14" t="n">
+      <c r="C78" s="13" t="n">
         <v>74241.97</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="10" t="s">
+      <c r="A79" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B79" s="14" t="n">
+      <c r="B79" s="15" t="n">
         <v>278</v>
       </c>
-      <c r="C79" s="14" t="n">
+      <c r="C79" s="13" t="n">
         <v>2534501.59</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B80" s="14" t="n">
+      <c r="B80" s="15" t="n">
         <v>270</v>
       </c>
-      <c r="C80" s="14" t="n">
+      <c r="C80" s="13" t="n">
         <v>284058.76</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="10" t="s">
+      <c r="A81" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B81" s="14" t="n">
+      <c r="B81" s="15" t="n">
         <v>644</v>
       </c>
-      <c r="C81" s="14" t="n">
+      <c r="C81" s="13" t="n">
         <v>75362.11</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B82" s="14" t="n">
+      <c r="B82" s="15" t="n">
         <v>264</v>
       </c>
-      <c r="C82" s="14" t="n">
+      <c r="C82" s="13" t="n">
         <v>30006.09</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="10" t="s">
+      <c r="A83" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B83" s="14" t="n">
+      <c r="B83" s="15" t="n">
         <v>561</v>
       </c>
-      <c r="C83" s="14" t="n">
+      <c r="C83" s="13" t="n">
         <v>1005307.52</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="10" t="s">
+      <c r="A84" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B84" s="14" t="n">
+      <c r="B84" s="15" t="n">
         <v>1046</v>
       </c>
-      <c r="C84" s="14" t="n">
+      <c r="C84" s="13" t="n">
         <v>900528.22</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="10" t="s">
+      <c r="A85" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B85" s="14" t="n">
+      <c r="B85" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="C85" s="14" t="n">
+      <c r="C85" s="13" t="n">
         <v>363639.8</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="10" t="s">
+      <c r="A86" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B86" s="14" t="n">
+      <c r="B86" s="15" t="n">
         <v>2304</v>
       </c>
-      <c r="C86" s="14" t="n">
+      <c r="C86" s="13" t="n">
         <v>713326.44</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="10" t="s">
+      <c r="A87" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B87" s="14" t="n">
+      <c r="B87" s="15" t="n">
         <v>2309</v>
       </c>
-      <c r="C87" s="14" t="n">
+      <c r="C87" s="13" t="n">
         <v>713087.33</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="10" t="s">
+      <c r="A88" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B88" s="14" t="n">
+      <c r="B88" s="15" t="n">
         <v>2310</v>
       </c>
-      <c r="C88" s="14" t="n">
+      <c r="C88" s="13" t="n">
         <v>713028.38</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="10" t="s">
+      <c r="A89" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B89" s="14" t="n">
+      <c r="B89" s="15" t="n">
         <v>2311</v>
       </c>
-      <c r="C89" s="14" t="n">
+      <c r="C89" s="13" t="n">
         <v>356484.72</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="10" t="s">
+      <c r="A90" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B90" s="14" t="n">
+      <c r="B90" s="15" t="n">
         <v>2316</v>
       </c>
-      <c r="C90" s="14" t="n">
+      <c r="C90" s="13" t="n">
         <v>3655052.23</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="10" t="s">
+      <c r="A91" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B91" s="14" t="n">
+      <c r="B91" s="15" t="n">
         <v>2321</v>
       </c>
-      <c r="C91" s="14" t="n">
+      <c r="C91" s="13" t="n">
         <v>406149.85</v>
       </c>
     </row>
